--- a/ReligionData/EU_Population_Data.xlsx
+++ b/ReligionData/EU_Population_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\Downloads\Github Repo\CSC3007-project\ReligionData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826F30A-2C09-43C0-908B-6F0657A70D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,85 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>France (metropolitan)</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +128,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +430,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>11455519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7000039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10649800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5806081</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>83019213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1324820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4904240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10724599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ReligionData/EU_Population_Data.xlsx
+++ b/ReligionData/EU_Population_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YH\Downloads\Github Repo\CSC3007-project\ReligionData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826F30A-2C09-43C0-908B-6F0657A70D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE16698-5B33-4D87-8278-340D9A7AC868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Country</t>
   </si>
@@ -60,9 +60,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>France (metropolitan)</t>
-  </si>
-  <si>
     <t>Croatia</t>
   </si>
   <si>
@@ -97,6 +94,87 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Georgia</t>
   </si>
 </sst>
 </file>
@@ -150,7 +228,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,7 +530,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
@@ -460,7 +538,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
@@ -468,7 +546,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
@@ -476,7 +554,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
@@ -484,15 +562,15 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>23</v>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2">
         <v>83019213</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
@@ -500,7 +578,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -508,7 +586,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
@@ -516,76 +594,327 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2">
+        <v>46937060</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2">
+        <v>67290471</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2">
+        <v>4076246</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B13" s="2">
+        <v>59816673</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B14" s="2">
+        <v>875899</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B15" s="2">
+        <v>1919968</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B16" s="2">
+        <v>2794184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B17" s="2">
+        <v>613894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B18" s="2">
+        <v>9772756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="B19" s="2">
+        <v>493559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B20" s="2">
+        <v>17282163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="B21" s="2">
+        <v>8858775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="B22" s="2">
+        <v>37972812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2">
+        <v>10276617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
+        <v>19414458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2080908</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5450421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>5517919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10230185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>356991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2">
+        <v>38378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2">
+        <v>5328212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8544527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2">
+        <v>66647112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2">
+        <v>622182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2077132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2862427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>6963764</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>82003882</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
+        <v>76177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9475174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3492018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1795666</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2686064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2">
+        <v>38300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2">
+        <v>34453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2">
+        <v>42216766</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2972732</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2">
+        <v>9898085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2">
+        <v>3729633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>